--- a/assets/Stage00.xlsx
+++ b/assets/Stage00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A09\PG\MyFirstGame\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DA08D9-D18C-48FE-925D-B61B1B3D7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376E702-F15C-4468-B0CB-769BA101B9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5150F55E-DCA2-4F5E-90F9-383F0C3F5E47}"/>
   </bookViews>
@@ -84,49 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -464,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5444374-3490-4F52-B93E-5093D8A0761D}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -480,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -519,19 +477,10 @@
         <v>0</v>
       </c>
       <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -554,16 +503,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -578,19 +527,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -637,19 +577,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -696,19 +627,10 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -755,19 +677,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -775,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -814,21 +727,12 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -873,21 +777,12 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -932,21 +827,12 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -991,21 +877,12 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1050,21 +927,12 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1109,21 +977,12 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1168,21 +1027,12 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1227,21 +1077,12 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1286,21 +1127,12 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1345,21 +1177,12 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1404,21 +1227,12 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1463,21 +1277,12 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1498,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1522,21 +1327,12 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1560,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1581,21 +1377,12 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1640,21 +1427,12 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1699,21 +1477,12 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1758,22 +1527,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:R1048576 T1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/Stage00.xlsx
+++ b/assets/Stage00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A09\PG\MyFirstGame\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376E702-F15C-4468-B0CB-769BA101B9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42AF87D-7936-493D-9BBF-2FA5A54CAC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5150F55E-DCA2-4F5E-90F9-383F0C3F5E47}"/>
   </bookViews>
@@ -422,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5444374-3490-4F52-B93E-5093D8A0761D}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -465,22 +465,10 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -515,22 +503,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -565,22 +541,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -612,25 +576,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -665,22 +617,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -715,22 +655,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -765,22 +693,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -815,22 +731,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -865,22 +769,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -909,28 +801,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -965,22 +845,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1015,524 +883,12 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:R1048576 T1:XFD1048576">
+  <conditionalFormatting sqref="Q1:R12 T1:XFD1048576 A13:R1048576 A1:L12">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/assets/Stage00.xlsx
+++ b/assets/Stage00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A09\PG\MyFirstGame\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42AF87D-7936-493D-9BBF-2FA5A54CAC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F74830-0922-4B5F-9BE6-6C8C83C1F370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5150F55E-DCA2-4F5E-90F9-383F0C3F5E47}"/>
   </bookViews>
@@ -84,7 +84,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -425,7 +439,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -549,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -622,13 +636,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -663,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -889,8 +903,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="Q1:R12 T1:XFD1048576 A13:R1048576 A1:L12">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Stage00.xlsx
+++ b/assets/Stage00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A09\PG\MyFirstGame\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F74830-0922-4B5F-9BE6-6C8C83C1F370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD2F048-1D24-4179-B0D8-413E477672DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5150F55E-DCA2-4F5E-90F9-383F0C3F5E47}"/>
   </bookViews>
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -100,9 +100,20 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -436,15 +447,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5444374-3490-4F52-B93E-5093D8A0761D}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="2.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -481,8 +502,26 @@
       <c r="L1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -519,16 +558,34 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -557,16 +614,34 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -595,16 +670,34 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -633,8 +726,26 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -671,8 +782,26 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -709,8 +838,26 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -747,8 +894,26 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -785,8 +950,26 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -823,8 +1006,26 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -853,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -861,8 +1062,26 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -897,19 +1116,489 @@
         <v>0</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="Q1:R12 T1:XFD1048576 A13:R1048576 A1:L12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
